--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\pjt11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\블로그 크롤링\NaverBlogCrawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5698,11 +5698,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection sqref="A1:AM471"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="3" max="4" width="8.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="28.8" thickTop="1" thickBot="1">
       <c r="A1" s="3">
